--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_13-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_13-57.xlsx
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>0:27</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1568,11 +1574,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1594,11 +1600,11 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1614,17 +1620,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1632,7 +1638,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1640,17 +1646,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1658,7 +1664,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1666,13 +1672,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1692,13 +1698,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1710,7 +1716,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1718,13 +1724,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1736,7 +1742,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1744,51 +1750,77 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="K41" s="10">
-        <v>1163.3199999999999</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="11">
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
         <v>69</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c t="s" r="F42" s="12">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
         <v>70</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c t="s" r="I42" s="14">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>40</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="26.25" customHeight="1">
+      <c r="K42" s="10">
+        <v>1171.3199999999999</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="11">
         <v>71</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c t="s" r="F43" s="12">
+        <v>72</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c t="s" r="I43" s="14">
+        <v>73</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="125">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1907,10 +1939,13 @@
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:N43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
